--- a/新旧料号.xlsx
+++ b/新旧料号.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wenqiang.ding\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD083723-7D08-4D7C-BE99-AA58819418FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BA0D3A-315B-415F-9A05-AC4278BCE5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="844">
   <si>
     <t>旧规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2611,6 +2611,10 @@
   </si>
   <si>
     <t>SC60221-D-360</t>
+  </si>
+  <si>
+    <t>SC9641TS-P-AI-9999-41CPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2744,7 +2748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2773,11 +2777,37 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="99">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4024,11 +4054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W209"/>
+  <dimension ref="A1:W537"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9098,7 +9128,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:17">
       <c r="D161" t="s">
         <v>634</v>
       </c>
@@ -9121,7 +9151,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:17">
       <c r="D162" t="s">
         <v>634</v>
       </c>
@@ -9144,7 +9174,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="16.5">
+    <row r="163" spans="1:17" ht="16.5">
       <c r="D163" t="s">
         <v>634</v>
       </c>
@@ -9167,7 +9197,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="16.5">
+    <row r="164" spans="1:17" ht="16.5">
       <c r="D164" t="s">
         <v>634</v>
       </c>
@@ -9190,7 +9220,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:17">
       <c r="A165" t="s">
         <v>292</v>
       </c>
@@ -9222,7 +9252,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:17">
       <c r="D166" t="s">
         <v>634</v>
       </c>
@@ -9245,7 +9275,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:17">
       <c r="A167" t="s">
         <v>634</v>
       </c>
@@ -9283,7 +9313,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:17" ht="16.5">
       <c r="A168" t="s">
         <v>485</v>
       </c>
@@ -9320,8 +9350,17 @@
       <c r="N168" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="169" spans="1:14">
+      <c r="O168" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="P168" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q168" s="11" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
       <c r="D169" t="s">
         <v>485</v>
       </c>
@@ -9350,7 +9389,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:17">
       <c r="A170" t="s">
         <v>485</v>
       </c>
@@ -9379,7 +9418,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:17">
       <c r="A171" t="s">
         <v>657</v>
       </c>
@@ -9411,7 +9450,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:17">
       <c r="D172" t="s">
         <v>657</v>
       </c>
@@ -9434,7 +9473,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:17">
       <c r="D173" t="s">
         <v>657</v>
       </c>
@@ -9457,7 +9496,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:17">
       <c r="A174" t="s">
         <v>681</v>
       </c>
@@ -9477,7 +9516,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:17">
       <c r="A175" t="s">
         <v>684</v>
       </c>
@@ -9497,7 +9536,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:17">
       <c r="A176" t="s">
         <v>687</v>
       </c>
@@ -10348,143 +10387,458 @@
         <v>705</v>
       </c>
     </row>
+    <row r="225" customFormat="1"/>
+    <row r="226" customFormat="1"/>
+    <row r="227" customFormat="1"/>
+    <row r="228" customFormat="1"/>
+    <row r="229" customFormat="1"/>
+    <row r="230" customFormat="1"/>
+    <row r="231" customFormat="1"/>
+    <row r="232" customFormat="1"/>
+    <row r="233" customFormat="1"/>
+    <row r="234" customFormat="1"/>
+    <row r="235" customFormat="1"/>
+    <row r="236" customFormat="1"/>
+    <row r="237" customFormat="1"/>
+    <row r="238" customFormat="1"/>
+    <row r="239" customFormat="1"/>
+    <row r="240" customFormat="1"/>
+    <row r="241" customFormat="1"/>
+    <row r="242" customFormat="1"/>
+    <row r="243" customFormat="1"/>
+    <row r="244" customFormat="1"/>
+    <row r="245" customFormat="1"/>
+    <row r="246" customFormat="1"/>
+    <row r="247" customFormat="1"/>
+    <row r="248" customFormat="1"/>
+    <row r="249" customFormat="1"/>
+    <row r="250" customFormat="1"/>
+    <row r="251" customFormat="1"/>
+    <row r="252" customFormat="1"/>
+    <row r="253" customFormat="1"/>
+    <row r="254" customFormat="1"/>
+    <row r="255" customFormat="1"/>
+    <row r="256" customFormat="1"/>
+    <row r="257" customFormat="1"/>
+    <row r="258" customFormat="1"/>
+    <row r="259" customFormat="1"/>
+    <row r="260" customFormat="1"/>
+    <row r="261" customFormat="1"/>
+    <row r="262" customFormat="1"/>
+    <row r="263" customFormat="1"/>
+    <row r="264" customFormat="1"/>
+    <row r="265" customFormat="1"/>
+    <row r="266" customFormat="1"/>
+    <row r="267" customFormat="1"/>
+    <row r="268" customFormat="1"/>
+    <row r="269" customFormat="1"/>
+    <row r="270" customFormat="1"/>
+    <row r="271" customFormat="1"/>
+    <row r="272" customFormat="1"/>
+    <row r="273" customFormat="1"/>
+    <row r="274" customFormat="1"/>
+    <row r="275" customFormat="1"/>
+    <row r="276" customFormat="1"/>
+    <row r="277" customFormat="1"/>
+    <row r="278" customFormat="1"/>
+    <row r="279" customFormat="1"/>
+    <row r="280" customFormat="1"/>
+    <row r="281" customFormat="1"/>
+    <row r="282" customFormat="1"/>
+    <row r="283" customFormat="1"/>
+    <row r="284" customFormat="1"/>
+    <row r="285" customFormat="1"/>
+    <row r="286" customFormat="1"/>
+    <row r="287" customFormat="1"/>
+    <row r="288" customFormat="1"/>
+    <row r="289" customFormat="1"/>
+    <row r="290" customFormat="1"/>
+    <row r="291" customFormat="1"/>
+    <row r="292" customFormat="1"/>
+    <row r="293" customFormat="1"/>
+    <row r="294" customFormat="1"/>
+    <row r="295" customFormat="1"/>
+    <row r="296" customFormat="1"/>
+    <row r="297" customFormat="1"/>
+    <row r="298" customFormat="1"/>
+    <row r="299" customFormat="1"/>
+    <row r="300" customFormat="1"/>
+    <row r="301" customFormat="1"/>
+    <row r="302" customFormat="1"/>
+    <row r="303" customFormat="1"/>
+    <row r="304" customFormat="1"/>
+    <row r="305" customFormat="1"/>
+    <row r="306" customFormat="1"/>
+    <row r="307" customFormat="1"/>
+    <row r="308" customFormat="1"/>
+    <row r="309" customFormat="1"/>
+    <row r="310" customFormat="1"/>
+    <row r="311" customFormat="1"/>
+    <row r="312" customFormat="1"/>
+    <row r="313" customFormat="1"/>
+    <row r="314" customFormat="1"/>
+    <row r="315" customFormat="1"/>
+    <row r="316" customFormat="1"/>
+    <row r="317" customFormat="1"/>
+    <row r="318" customFormat="1"/>
+    <row r="319" customFormat="1"/>
+    <row r="320" customFormat="1"/>
+    <row r="321" customFormat="1"/>
+    <row r="322" customFormat="1"/>
+    <row r="323" customFormat="1"/>
+    <row r="324" customFormat="1"/>
+    <row r="325" customFormat="1"/>
+    <row r="326" customFormat="1"/>
+    <row r="327" customFormat="1"/>
+    <row r="328" customFormat="1"/>
+    <row r="329" customFormat="1"/>
+    <row r="330" customFormat="1"/>
+    <row r="331" customFormat="1"/>
+    <row r="332" customFormat="1"/>
+    <row r="333" customFormat="1"/>
+    <row r="334" customFormat="1"/>
+    <row r="335" customFormat="1"/>
+    <row r="336" customFormat="1"/>
+    <row r="337" customFormat="1"/>
+    <row r="338" customFormat="1"/>
+    <row r="339" customFormat="1"/>
+    <row r="340" customFormat="1"/>
+    <row r="341" customFormat="1"/>
+    <row r="342" customFormat="1"/>
+    <row r="343" customFormat="1"/>
+    <row r="344" customFormat="1"/>
+    <row r="345" customFormat="1"/>
+    <row r="346" customFormat="1"/>
+    <row r="347" customFormat="1"/>
+    <row r="348" customFormat="1"/>
+    <row r="349" customFormat="1"/>
+    <row r="350" customFormat="1"/>
+    <row r="351" customFormat="1"/>
+    <row r="352" customFormat="1"/>
+    <row r="353" customFormat="1"/>
+    <row r="354" customFormat="1"/>
+    <row r="355" customFormat="1"/>
+    <row r="356" customFormat="1"/>
+    <row r="357" customFormat="1"/>
+    <row r="358" customFormat="1"/>
+    <row r="359" customFormat="1"/>
+    <row r="360" customFormat="1"/>
+    <row r="361" customFormat="1"/>
+    <row r="362" customFormat="1"/>
+    <row r="363" customFormat="1"/>
+    <row r="364" customFormat="1"/>
+    <row r="365" customFormat="1"/>
+    <row r="366" customFormat="1"/>
+    <row r="367" customFormat="1"/>
+    <row r="368" customFormat="1"/>
+    <row r="369" customFormat="1"/>
+    <row r="370" customFormat="1"/>
+    <row r="371" customFormat="1"/>
+    <row r="372" customFormat="1"/>
+    <row r="373" customFormat="1"/>
+    <row r="374" customFormat="1"/>
+    <row r="375" customFormat="1"/>
+    <row r="376" customFormat="1"/>
+    <row r="377" customFormat="1"/>
+    <row r="378" customFormat="1"/>
+    <row r="379" customFormat="1"/>
+    <row r="380" customFormat="1"/>
+    <row r="381" customFormat="1"/>
+    <row r="382" customFormat="1"/>
+    <row r="383" customFormat="1"/>
+    <row r="384" customFormat="1"/>
+    <row r="385" customFormat="1"/>
+    <row r="386" customFormat="1"/>
+    <row r="387" customFormat="1"/>
+    <row r="388" customFormat="1"/>
+    <row r="389" customFormat="1"/>
+    <row r="390" customFormat="1"/>
+    <row r="391" customFormat="1"/>
+    <row r="392" customFormat="1"/>
+    <row r="393" customFormat="1"/>
+    <row r="394" customFormat="1"/>
+    <row r="395" customFormat="1"/>
+    <row r="396" customFormat="1"/>
+    <row r="397" customFormat="1"/>
+    <row r="398" customFormat="1"/>
+    <row r="399" customFormat="1"/>
+    <row r="400" customFormat="1"/>
+    <row r="401" customFormat="1"/>
+    <row r="402" customFormat="1"/>
+    <row r="403" customFormat="1"/>
+    <row r="404" customFormat="1"/>
+    <row r="405" customFormat="1"/>
+    <row r="406" customFormat="1"/>
+    <row r="407" customFormat="1"/>
+    <row r="408" customFormat="1"/>
+    <row r="409" customFormat="1"/>
+    <row r="410" customFormat="1"/>
+    <row r="411" customFormat="1"/>
+    <row r="412" customFormat="1"/>
+    <row r="413" customFormat="1"/>
+    <row r="414" customFormat="1"/>
+    <row r="415" customFormat="1"/>
+    <row r="416" customFormat="1"/>
+    <row r="417" customFormat="1"/>
+    <row r="418" customFormat="1"/>
+    <row r="419" customFormat="1"/>
+    <row r="420" customFormat="1"/>
+    <row r="421" customFormat="1"/>
+    <row r="422" customFormat="1"/>
+    <row r="423" customFormat="1"/>
+    <row r="424" customFormat="1"/>
+    <row r="425" customFormat="1"/>
+    <row r="426" customFormat="1"/>
+    <row r="427" customFormat="1"/>
+    <row r="428" customFormat="1"/>
+    <row r="429" customFormat="1"/>
+    <row r="430" customFormat="1"/>
+    <row r="431" customFormat="1"/>
+    <row r="432" customFormat="1"/>
+    <row r="433" customFormat="1"/>
+    <row r="434" customFormat="1"/>
+    <row r="435" customFormat="1"/>
+    <row r="436" customFormat="1"/>
+    <row r="437" customFormat="1"/>
+    <row r="438" customFormat="1"/>
+    <row r="439" customFormat="1"/>
+    <row r="440" customFormat="1"/>
+    <row r="441" customFormat="1"/>
+    <row r="442" customFormat="1"/>
+    <row r="443" customFormat="1"/>
+    <row r="444" customFormat="1"/>
+    <row r="445" customFormat="1"/>
+    <row r="446" customFormat="1"/>
+    <row r="447" customFormat="1"/>
+    <row r="448" customFormat="1"/>
+    <row r="449" customFormat="1"/>
+    <row r="450" customFormat="1"/>
+    <row r="451" customFormat="1"/>
+    <row r="452" customFormat="1"/>
+    <row r="453" customFormat="1"/>
+    <row r="454" customFormat="1"/>
+    <row r="455" customFormat="1"/>
+    <row r="456" customFormat="1"/>
+    <row r="457" customFormat="1"/>
+    <row r="458" customFormat="1"/>
+    <row r="459" customFormat="1"/>
+    <row r="460" customFormat="1"/>
+    <row r="461" customFormat="1"/>
+    <row r="462" customFormat="1"/>
+    <row r="463" customFormat="1"/>
+    <row r="464" customFormat="1"/>
+    <row r="465" customFormat="1"/>
+    <row r="466" customFormat="1"/>
+    <row r="467" customFormat="1"/>
+    <row r="468" customFormat="1"/>
+    <row r="469" customFormat="1"/>
+    <row r="470" customFormat="1"/>
+    <row r="471" customFormat="1"/>
+    <row r="472" customFormat="1"/>
+    <row r="473" customFormat="1"/>
+    <row r="474" customFormat="1"/>
+    <row r="475" customFormat="1"/>
+    <row r="476" customFormat="1"/>
+    <row r="477" customFormat="1"/>
+    <row r="478" customFormat="1"/>
+    <row r="479" customFormat="1"/>
+    <row r="480" customFormat="1"/>
+    <row r="481" customFormat="1"/>
+    <row r="482" customFormat="1"/>
+    <row r="483" customFormat="1"/>
+    <row r="484" customFormat="1"/>
+    <row r="485" customFormat="1"/>
+    <row r="486" customFormat="1"/>
+    <row r="487" customFormat="1"/>
+    <row r="488" customFormat="1"/>
+    <row r="489" customFormat="1"/>
+    <row r="490" customFormat="1"/>
+    <row r="491" customFormat="1"/>
+    <row r="492" customFormat="1"/>
+    <row r="493" customFormat="1"/>
+    <row r="494" customFormat="1"/>
+    <row r="495" customFormat="1"/>
+    <row r="496" customFormat="1"/>
+    <row r="497" customFormat="1"/>
+    <row r="498" customFormat="1"/>
+    <row r="499" customFormat="1"/>
+    <row r="500" customFormat="1"/>
+    <row r="501" customFormat="1"/>
+    <row r="502" customFormat="1"/>
+    <row r="503" customFormat="1"/>
+    <row r="504" customFormat="1"/>
+    <row r="505" customFormat="1"/>
+    <row r="506" customFormat="1"/>
+    <row r="507" customFormat="1"/>
+    <row r="508" customFormat="1"/>
+    <row r="509" customFormat="1"/>
+    <row r="510" customFormat="1"/>
+    <row r="511" customFormat="1"/>
+    <row r="512" customFormat="1"/>
+    <row r="513" customFormat="1"/>
+    <row r="514" customFormat="1"/>
+    <row r="515" customFormat="1"/>
+    <row r="516" customFormat="1"/>
+    <row r="517" customFormat="1"/>
+    <row r="518" customFormat="1"/>
+    <row r="519" customFormat="1"/>
+    <row r="520" customFormat="1"/>
+    <row r="521" customFormat="1"/>
+    <row r="522" customFormat="1"/>
+    <row r="523" customFormat="1"/>
+    <row r="524" customFormat="1"/>
+    <row r="525" customFormat="1"/>
+    <row r="526" customFormat="1"/>
+    <row r="527" customFormat="1"/>
+    <row r="528" customFormat="1"/>
+    <row r="529" customFormat="1"/>
+    <row r="530" customFormat="1"/>
+    <row r="531" customFormat="1"/>
+    <row r="532" customFormat="1"/>
+    <row r="533" customFormat="1"/>
+    <row r="534" customFormat="1"/>
+    <row r="535" customFormat="1"/>
+    <row r="536" customFormat="1"/>
+    <row r="537" customFormat="1"/>
   </sheetData>
   <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="96" priority="237"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="238"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="240"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="244"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="244"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C4 C6:C50 C52:C1048576">
-    <cfRule type="duplicateValues" dxfId="91" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C50 C52:C1048576">
-    <cfRule type="duplicateValues" dxfId="89" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="87" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="42"/>
     <cfRule type="duplicateValues" dxfId="84" priority="41"/>
     <cfRule type="duplicateValues" dxfId="83" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="duplicateValues" dxfId="80" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="68" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="67" priority="241"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="243"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="245"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="246"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="249"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F4 F6:F1048576">
-    <cfRule type="duplicateValues" dxfId="62" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="61" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="duplicateValues" dxfId="56" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1 F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="53" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="228"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F96 F98:F113 F115:F1048576 F1:F4 F6:F76">
-    <cfRule type="duplicateValues" dxfId="50" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="199"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98:F113 F1:F4 F115:F1048576 F6:F96">
-    <cfRule type="duplicateValues" dxfId="49" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="48" priority="234"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="237"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J76 J165:J1048576 J79:J162">
-    <cfRule type="duplicateValues" dxfId="46" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="198"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J31">
-    <cfRule type="duplicateValues" dxfId="45" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="209"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
+    <cfRule type="duplicateValues" dxfId="44" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="205"/>
     <cfRule type="duplicateValues" dxfId="42" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="202"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61:J76">
-    <cfRule type="duplicateValues" dxfId="39" priority="268"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="266"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="269"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J77:J78 C79:C1048576 C1:C4 B77:C78 E77:F78 C6:C50 L77:L78 C52:C76">
-    <cfRule type="duplicateValues" dxfId="36" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="227"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="200"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J163:J164">
-    <cfRule type="duplicateValues" dxfId="32" priority="185"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="184"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="188"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="29" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="241"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="28" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="218"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="duplicateValues" dxfId="25" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="24" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="38"/>
     <cfRule type="duplicateValues" dxfId="22" priority="37"/>
     <cfRule type="duplicateValues" dxfId="21" priority="36"/>
     <cfRule type="duplicateValues" dxfId="20" priority="35"/>
     <cfRule type="duplicateValues" dxfId="19" priority="34"/>
     <cfRule type="duplicateValues" dxfId="18" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="duplicateValues" dxfId="15" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="225"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N125">
+    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
     <cfRule type="duplicateValues" dxfId="13" priority="23"/>
     <cfRule type="duplicateValues" dxfId="12" priority="22"/>
     <cfRule type="duplicateValues" dxfId="11" priority="21"/>
@@ -10492,15 +10846,17 @@
     <cfRule type="duplicateValues" dxfId="9" priority="19"/>
     <cfRule type="duplicateValues" dxfId="8" priority="18"/>
     <cfRule type="duplicateValues" dxfId="7" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="duplicateValues" dxfId="2" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="222"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q168">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
